--- a/data/trans_camb/P2403-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2403-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 3,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 5,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 4,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 2,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 4,36</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1008,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1889,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1862,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3265,93%</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 5,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 5,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 1,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 5,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 3,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,51; 5,05</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>383,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>414,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1113,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>324,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>588,84%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,83; 1195,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,39; 1355,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>210,67; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>109,28; 931,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>233,03; 1431,27</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 4,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,63; 4,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 2,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 2,81</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1995,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1869,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2673,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2605,31%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 4,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 3,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 2,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 3,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 3,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 3,4</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>327,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>259,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>506,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>541,74%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,02; 1601,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,25; 1438,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>114,64; 2404,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>140,56; 2444,59</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 4,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 2,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 2,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 2,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 2,01</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1386,27 +1386,27 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 1,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 0,57</t>
         </is>
       </c>
     </row>
@@ -1462,27 +1462,27 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 2,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 2,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 1,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 2,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 1,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 2,33</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>602,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>574,74%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1113,14%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2546,32%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>677,7%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>868,36%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>284,9; 1281,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>275,4; 1305,15</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>171,5; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>603,14; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>346,18; 1291,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>502,11; 1676,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2403-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,26</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,57</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,81</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,33</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>602,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>574,74%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1113,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2546,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>677,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>868,36%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 2,98</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 2,81</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 1,14</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 2,13</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 1,83</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 2,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>602,65%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>574,74%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>1113,14%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>2546,32%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>677,7%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>868,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>284,9; 1281,42</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>275,4; 1305,15</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>171,5; —</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>603,14; —</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>346,18; 1291,49</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>502,11; 1676,84</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
